--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/spring/CS380ML-S24/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC94C28-9774-6144-BC82-7F035EC55927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697E5A76-FCA7-3646-B5F2-A224952AA799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="17760" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>q05</t>
-  </si>
-  <si>
-    <t>ic10</t>
   </si>
   <si>
     <t>Final Project Work Session</t>
@@ -433,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -459,41 +456,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -501,9 +482,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,8 +511,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -557,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,10 +541,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +781,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -797,7 +789,7 @@
     <col min="3" max="3" width="10.83203125" style="6"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="52"/>
+    <col min="7" max="7" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -832,30 +824,30 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="19">
+      <c r="C2" s="79">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="44"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="C3" s="83"/>
+      <c r="D3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="19">
         <v>44943</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="39" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="11"/>
@@ -863,283 +855,281 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="19">
+      <c r="C4" s="79">
         <v>2</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="20">
         <v>44948</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="61"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="C5" s="83"/>
+      <c r="D5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="19">
         <v>44950</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="19">
+      <c r="C6" s="79">
         <v>3</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>44955</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="61"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="C7" s="80"/>
+      <c r="D7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21">
         <v>44957</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="41" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="19">
+      <c r="C8" s="79">
         <v>4</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>44962</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="40" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="61"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="C9" s="80"/>
+      <c r="D9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="21">
         <v>44964</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="41" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="19">
+      <c r="C10" s="79">
         <v>5</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>44969</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="40" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="61"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="66">
+      <c r="C11" s="80"/>
+      <c r="D11" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="58">
         <v>44971</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="67" t="s">
+      <c r="F11" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="19">
+      <c r="C12" s="79">
         <v>6</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>44977</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="61"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="C13" s="80"/>
+      <c r="D13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="21">
         <v>44978</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="41" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="53" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="19">
+      <c r="C14" s="79">
         <v>7</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <v>44983</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="40" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="61" t="s">
-        <v>73</v>
-      </c>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="C15" s="80"/>
+      <c r="D15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="21">
         <v>44985</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="41" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="53" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="19">
+      <c r="C16" s="79">
         <v>8</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <v>44989</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="38" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="8"/>
@@ -1148,218 +1138,218 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="24">
+      <c r="C17" s="80"/>
+      <c r="D17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="21">
         <v>44991</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="41" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="84">
         <v>9</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="25">
         <v>44996</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="C19" s="85"/>
+      <c r="D19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="30">
         <v>44998</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="73" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="79">
         <v>10</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="64">
         <v>45003</v>
       </c>
-      <c r="F20" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
+      <c r="F20" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="24">
+      <c r="C21" s="80"/>
+      <c r="D21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="21">
         <v>45005</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="19">
+      <c r="C22" s="79">
         <v>11</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="20">
         <v>45010</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="40" t="s">
         <v>50</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="61"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="C23" s="80"/>
+      <c r="D23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21">
         <v>45012</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="19">
+      <c r="C24" s="79">
         <v>12</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="20">
         <v>45017</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="40" t="s">
         <v>54</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="61"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="24">
+      <c r="C25" s="80"/>
+      <c r="D25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="21">
         <v>45019</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="41" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="53" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="19">
+      <c r="C26" s="79">
         <v>13</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="20">
         <v>45024</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="38" t="s">
         <v>58</v>
       </c>
       <c r="H26" s="8"/>
@@ -1370,84 +1360,84 @@
       <c r="B27" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="25">
+      <c r="C27" s="80"/>
+      <c r="D27" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="22">
         <v>45026</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="51"/>
+      <c r="F27" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="44"/>
       <c r="H27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="79">
         <v>14</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="25">
         <v>45031</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="62"/>
+      <c r="B29" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="66">
+      <c r="C29" s="80"/>
+      <c r="D29" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="58">
         <v>45033</v>
       </c>
-      <c r="F29" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="69" t="s">
+      <c r="F29" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="61" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="19">
+      <c r="C30" s="79">
         <v>15</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="20">
         <v>45038</v>
       </c>
-      <c r="F30" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="44"/>
+      <c r="F30" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="38"/>
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
     </row>
@@ -1456,67 +1446,67 @@
       <c r="B31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="24">
+      <c r="C31" s="80"/>
+      <c r="D31" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="21">
         <v>45040</v>
       </c>
-      <c r="F31" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="51"/>
+      <c r="F31" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="44"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="60" t="s">
+      <c r="I31" s="53" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="72" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="81">
         <v>16</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="74">
         <v>45045</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86" t="s">
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="56">
+      <c r="C33" s="82"/>
+      <c r="D33" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="49">
         <v>45047</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697E5A76-FCA7-3646-B5F2-A224952AA799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF1C3E3-FB46-2740-8ACC-BFB5937F1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="17760" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Welcome, Intro to ML</t>
   </si>
   <si>
-    <t>Evaluating Models</t>
-  </si>
-  <si>
     <t>p.1-28</t>
   </si>
   <si>
@@ -261,6 +258,12 @@
   </si>
   <si>
     <t>Advanced Topics: TBD</t>
+  </si>
+  <si>
+    <t>Evaluating Models, GitHub Classroom</t>
+  </si>
+  <si>
+    <t>ic01</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -848,7 +851,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -865,13 +868,15 @@
         <v>44948</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="54"/>
+      <c r="I4" s="54" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
@@ -884,13 +889,13 @@
         <v>44950</v>
       </c>
       <c r="F5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="55"/>
     </row>
@@ -907,10 +912,10 @@
         <v>44955</v>
       </c>
       <c r="F6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="54"/>
@@ -926,16 +931,16 @@
         <v>44957</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -951,10 +956,10 @@
         <v>44962</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="54"/>
@@ -970,16 +975,16 @@
         <v>44964</v>
       </c>
       <c r="F9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>32</v>
-      </c>
       <c r="H9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -995,10 +1000,10 @@
         <v>44969</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="54"/>
@@ -1016,14 +1021,14 @@
         <v>44971</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1039,10 +1044,10 @@
         <v>44977</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>36</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="54"/>
@@ -1058,16 +1063,16 @@
         <v>44978</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>38</v>
-      </c>
       <c r="H13" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1083,10 +1088,10 @@
         <v>44983</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>39</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>40</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="54"/>
@@ -1102,16 +1107,16 @@
         <v>44985</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>42</v>
-      </c>
       <c r="H15" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1127,10 +1132,10 @@
         <v>44989</v>
       </c>
       <c r="F16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>43</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>44</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1146,16 +1151,16 @@
         <v>44991</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>46</v>
-      </c>
       <c r="H17" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1217,7 +1222,7 @@
         <v>45003</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="67"/>
@@ -1234,16 +1239,16 @@
         <v>45005</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>48</v>
-      </c>
       <c r="H21" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1259,10 +1264,10 @@
         <v>45010</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>49</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>50</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="54"/>
@@ -1278,16 +1283,16 @@
         <v>45012</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="41" t="s">
-        <v>52</v>
-      </c>
       <c r="H23" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1303,10 +1308,10 @@
         <v>45017</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="54"/>
@@ -1322,16 +1327,16 @@
         <v>45019</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="41" t="s">
-        <v>56</v>
-      </c>
       <c r="H25" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1347,10 +1352,10 @@
         <v>45024</v>
       </c>
       <c r="F26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>58</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
@@ -1368,14 +1373,14 @@
         <v>45026</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1414,12 +1419,12 @@
         <v>45033</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="70"/>
       <c r="H29" s="71"/>
       <c r="I29" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1435,7 +1440,7 @@
         <v>45038</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="8"/>
@@ -1454,12 +1459,12 @@
         <v>45040</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="13"/>
       <c r="I31" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1479,12 +1484,12 @@
         <v>45045</v>
       </c>
       <c r="F32" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="75"/>
       <c r="H32" s="76"/>
       <c r="I32" s="77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1502,7 +1507,7 @@
         <v>45047</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="51"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF1C3E3-FB46-2740-8ACC-BFB5937F1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BBF11B-C381-6447-9718-AEC7B6219E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="17760" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>p.59-82</t>
   </si>
   <si>
-    <t>Assumptions and Other Potential Problems</t>
-  </si>
-  <si>
     <t>p.82-119</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>ic01</t>
+  </si>
+  <si>
+    <t>More Linear Regression</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -868,14 +868,14 @@
         <v>44948</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -895,7 +895,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="55"/>
     </row>
@@ -912,10 +912,10 @@
         <v>44955</v>
       </c>
       <c r="F6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>25</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="54"/>
@@ -931,16 +931,16 @@
         <v>44957</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -956,10 +956,10 @@
         <v>44962</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>29</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="54"/>
@@ -975,16 +975,16 @@
         <v>44964</v>
       </c>
       <c r="F9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1000,10 +1000,10 @@
         <v>44969</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="54"/>
@@ -1021,14 +1021,14 @@
         <v>44971</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1044,10 +1044,10 @@
         <v>44977</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="54"/>
@@ -1063,16 +1063,16 @@
         <v>44978</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>37</v>
-      </c>
       <c r="H13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1088,10 +1088,10 @@
         <v>44983</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>38</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>39</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="54"/>
@@ -1107,16 +1107,16 @@
         <v>44985</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>41</v>
-      </c>
       <c r="H15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1132,10 +1132,10 @@
         <v>44989</v>
       </c>
       <c r="F16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>43</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1151,16 +1151,16 @@
         <v>44991</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>45</v>
-      </c>
       <c r="H17" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1222,7 +1222,7 @@
         <v>45003</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="67"/>
@@ -1239,16 +1239,16 @@
         <v>45005</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>47</v>
-      </c>
       <c r="H21" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1264,10 +1264,10 @@
         <v>45010</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>48</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>49</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="54"/>
@@ -1283,16 +1283,16 @@
         <v>45012</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="41" t="s">
-        <v>51</v>
-      </c>
       <c r="H23" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1308,10 +1308,10 @@
         <v>45017</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="54"/>
@@ -1327,16 +1327,16 @@
         <v>45019</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="41" t="s">
-        <v>55</v>
-      </c>
       <c r="H25" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1352,10 +1352,10 @@
         <v>45024</v>
       </c>
       <c r="F26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="38" t="s">
         <v>56</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>57</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
@@ -1373,14 +1373,14 @@
         <v>45026</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1419,12 +1419,12 @@
         <v>45033</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="70"/>
       <c r="H29" s="71"/>
       <c r="I29" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1440,7 +1440,7 @@
         <v>45038</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="8"/>
@@ -1459,12 +1459,12 @@
         <v>45040</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="13"/>
       <c r="I31" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1484,12 +1484,12 @@
         <v>45045</v>
       </c>
       <c r="F32" s="72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="75"/>
       <c r="H32" s="76"/>
       <c r="I32" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>45047</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="51"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BBF11B-C381-6447-9718-AEC7B6219E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BA423E-451A-E440-9736-7113F5BD02D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="17760" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50740" yWindow="1900" windowWidth="25920" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -95,117 +95,12 @@
     <t>Welcome, Intro to ML</t>
   </si>
   <si>
-    <t>p.1-28</t>
-  </si>
-  <si>
-    <t>p.29-51</t>
-  </si>
-  <si>
     <t>Simple and Multiple Linear Regression</t>
   </si>
   <si>
-    <t>p.59-82</t>
-  </si>
-  <si>
-    <t>p.82-119</t>
-  </si>
-  <si>
-    <t>Intro to Classification with KNN</t>
-  </si>
-  <si>
-    <t>p.129-130, 37-42, 104-109</t>
-  </si>
-  <si>
     <t>Logistic Regression</t>
   </si>
   <si>
-    <t>p.130</t>
-  </si>
-  <si>
-    <t>Discriminant Analysis</t>
-  </si>
-  <si>
-    <t>p.138-150</t>
-  </si>
-  <si>
-    <t>Classification Wrap-up</t>
-  </si>
-  <si>
-    <t>p.151-154</t>
-  </si>
-  <si>
-    <t>Resampling Methods</t>
-  </si>
-  <si>
-    <t>p.175-190</t>
-  </si>
-  <si>
-    <t>Best Subset and Setwise Selection</t>
-  </si>
-  <si>
-    <t>p.205-210</t>
-  </si>
-  <si>
-    <t>Estimating Error w/ Cross-Validation</t>
-  </si>
-  <si>
-    <t>p.210-214</t>
-  </si>
-  <si>
-    <t>Ridge Regression and the Lasso</t>
-  </si>
-  <si>
-    <t>p.214-228</t>
-  </si>
-  <si>
-    <t>PCR and PLS</t>
-  </si>
-  <si>
-    <t>p.228-244</t>
-  </si>
-  <si>
-    <t>Polynomial Regression and Step Functions</t>
-  </si>
-  <si>
-    <t>p.265-270</t>
-  </si>
-  <si>
-    <t>Splines and GAMs</t>
-  </si>
-  <si>
-    <t>p.271-287</t>
-  </si>
-  <si>
-    <t>Decision and Classification Trees</t>
-  </si>
-  <si>
-    <t>p.303-316</t>
-  </si>
-  <si>
-    <t>Bagging, Random Forests, and Boosting</t>
-  </si>
-  <si>
-    <t>p.316-324</t>
-  </si>
-  <si>
-    <t>Maximal Margin and Support Vector Classifiers</t>
-  </si>
-  <si>
-    <t>p.337-355</t>
-  </si>
-  <si>
-    <t>Multiclass SVMs</t>
-  </si>
-  <si>
-    <t>p.355-359</t>
-  </si>
-  <si>
-    <t>K-Means and Heirarchical Clustering</t>
-  </si>
-  <si>
-    <t>p.385-401</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final Project Presentations </t>
   </si>
   <si>
@@ -251,12 +146,6 @@
     <t>Final Project Work Session</t>
   </si>
   <si>
-    <t>Recap / Catch up Day</t>
-  </si>
-  <si>
-    <t>Advanced Topics: TBD</t>
-  </si>
-  <si>
     <t>Evaluating Models, GitHub Classroom</t>
   </si>
   <si>
@@ -264,6 +153,144 @@
   </si>
   <si>
     <t>More Linear Regression</t>
+  </si>
+  <si>
+    <t>Ch. 2.1</t>
+  </si>
+  <si>
+    <t>Ch. 2.2</t>
+  </si>
+  <si>
+    <t>Ch. 3.1, 3.2</t>
+  </si>
+  <si>
+    <t>Ch. 3.3</t>
+  </si>
+  <si>
+    <t>LR Comparison with KNN</t>
+  </si>
+  <si>
+    <t>Ch. 3.5</t>
+  </si>
+  <si>
+    <t>Generative Models for Classification</t>
+  </si>
+  <si>
+    <t>Comparison of Classification Methods</t>
+  </si>
+  <si>
+    <t>Ch. 4.3</t>
+  </si>
+  <si>
+    <t>Ch. 4.4</t>
+  </si>
+  <si>
+    <t>Ch. 4.5</t>
+  </si>
+  <si>
+    <t>Cross-Validation and Bootstrap</t>
+  </si>
+  <si>
+    <t>Ch. 5.1, 5.2</t>
+  </si>
+  <si>
+    <t>Ch. 5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification Lab </t>
+  </si>
+  <si>
+    <t>Ch. 4.7</t>
+  </si>
+  <si>
+    <t>Linear Regression Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch. 3.6 </t>
+  </si>
+  <si>
+    <t>Cross-Validation and Bootstrap Lab</t>
+  </si>
+  <si>
+    <t>Subset Selection</t>
+  </si>
+  <si>
+    <t>Ch. 6.1</t>
+  </si>
+  <si>
+    <t>Shrinkage Methods</t>
+  </si>
+  <si>
+    <t>Ch. 6.2</t>
+  </si>
+  <si>
+    <t>Dimension Reduction</t>
+  </si>
+  <si>
+    <t>Ch. 6.3</t>
+  </si>
+  <si>
+    <t>Linear Models and Regularization Lab</t>
+  </si>
+  <si>
+    <t>Ch. 6.5</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
+  </si>
+  <si>
+    <t>Ch. 8.1</t>
+  </si>
+  <si>
+    <t>Bagging, Random Forests, Boosting</t>
+  </si>
+  <si>
+    <t>Ch. 8.2</t>
+  </si>
+  <si>
+    <t>Tree-Based Methods Lab</t>
+  </si>
+  <si>
+    <t>Ch. 8.3</t>
+  </si>
+  <si>
+    <t>Principal Components Analysis</t>
+  </si>
+  <si>
+    <t>Ch. 12.2</t>
+  </si>
+  <si>
+    <t>Clustering Methods</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch. 12.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch. 12.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBD: Flex day </t>
+  </si>
+  <si>
+    <t>ic02</t>
+  </si>
+  <si>
+    <t>ic03</t>
+  </si>
+  <si>
+    <t>ic04</t>
+  </si>
+  <si>
+    <t>ic05</t>
+  </si>
+  <si>
+    <t>q04, ic06</t>
+  </si>
+  <si>
+    <t>ic07</t>
   </si>
 </sst>
 </file>
@@ -433,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -532,10 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -566,6 +589,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +828,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -827,7 +871,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="79">
+      <c r="C2" s="77">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -840,7 +884,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="83"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="34" t="s">
         <v>16</v>
       </c>
@@ -851,14 +895,14 @@
         <v>19</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="79">
+      <c r="C4" s="77">
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -868,20 +912,20 @@
         <v>44948</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="54" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="83"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="34" t="s">
         <v>16</v>
       </c>
@@ -889,20 +933,20 @@
         <v>44950</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="79">
+      <c r="C6" s="77">
         <v>3</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -912,18 +956,18 @@
         <v>44955</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="54"/>
     </row>
-    <row r="7" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="80"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
@@ -931,43 +975,47 @@
         <v>44957</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G7" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="79">
+      <c r="A8" s="69"/>
+      <c r="B8" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="77">
         <v>4</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="64">
         <v>44962</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="54"/>
+      <c r="F8" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="80"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
@@ -975,22 +1023,22 @@
         <v>44964</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="79">
+      <c r="C10" s="77">
         <v>5</v>
       </c>
       <c r="D10" s="35" t="s">
@@ -1000,62 +1048,66 @@
         <v>44969</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="87">
+        <v>44971</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="69"/>
+      <c r="B12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="58">
-        <v>44971</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="79">
+      <c r="C12" s="77">
         <v>6</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="64">
         <v>44977</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="54"/>
+      <c r="F12" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="80"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1063,43 +1115,47 @@
         <v>44978</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="79">
+      <c r="A14" s="69"/>
+      <c r="B14" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="77">
         <v>7</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="64">
         <v>44983</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="54"/>
+      <c r="F14" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="80"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1107,22 +1163,22 @@
         <v>44985</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="79">
+      <c r="C16" s="77">
         <v>8</v>
       </c>
       <c r="D16" s="35" t="s">
@@ -1132,10 +1188,10 @@
         <v>44989</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1143,7 +1199,7 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="80"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
@@ -1151,16 +1207,16 @@
         <v>44991</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1170,7 +1226,7 @@
       <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="82">
         <v>9</v>
       </c>
       <c r="D18" s="36" t="s">
@@ -1193,7 +1249,7 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="85"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="37" t="s">
         <v>16</v>
       </c>
@@ -1207,12 +1263,12 @@
       <c r="H19" s="32"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="69"/>
       <c r="B20" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="77">
         <v>10</v>
       </c>
       <c r="D20" s="63" t="s">
@@ -1222,39 +1278,43 @@
         <v>45003</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="66"/>
+        <v>65</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>66</v>
+      </c>
       <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
+      <c r="I20" s="68" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="22" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="87">
         <v>45005</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>67</v>
+      <c r="F21" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="79">
+      <c r="C22" s="77">
         <v>11</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -1264,41 +1324,43 @@
         <v>45010</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="22" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="58">
         <v>45012</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>68</v>
+      <c r="F23" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="79">
+      <c r="C24" s="77">
         <v>12</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -1308,10 +1370,10 @@
         <v>45017</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="54"/>
@@ -1319,7 +1381,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="80"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
@@ -1327,45 +1389,49 @@
         <v>45019</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="79">
+      <c r="A26" s="69"/>
+      <c r="B26" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="77">
         <v>13</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="64">
         <v>45024</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="80"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="22" t="s">
         <v>16</v>
       </c>
@@ -1373,14 +1439,14 @@
         <v>45026</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="18" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1390,7 +1456,7 @@
       <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="77">
         <v>14</v>
       </c>
       <c r="D28" s="36" t="s">
@@ -1407,51 +1473,49 @@
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="57" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="87">
         <v>45033</v>
       </c>
-      <c r="F29" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="61" t="s">
-        <v>60</v>
+      <c r="F29" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="88"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="90" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="79">
+      <c r="A30" s="91"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="77">
         <v>15</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="94">
         <v>45038</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="F30" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="97"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="98"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="80"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="22" t="s">
         <v>16</v>
       </c>
@@ -1459,37 +1523,37 @@
         <v>45040</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="13"/>
       <c r="I31" s="53" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="79">
         <v>16</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="74">
+      <c r="E32" s="72">
         <v>45045</v>
       </c>
-      <c r="F32" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77" t="s">
-        <v>58</v>
+      <c r="F32" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="75" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1499,7 +1563,7 @@
       <c r="B33" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="48" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +1571,7 @@
         <v>45047</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="51"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BA423E-451A-E440-9736-7113F5BD02D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9643198-8720-7B49-901C-D9A3F0FBDBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50740" yWindow="1900" windowWidth="25920" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55880" yWindow="1960" windowWidth="23220" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -176,16 +176,10 @@
     <t>Generative Models for Classification</t>
   </si>
   <si>
-    <t>Comparison of Classification Methods</t>
-  </si>
-  <si>
     <t>Ch. 4.3</t>
   </si>
   <si>
     <t>Ch. 4.4</t>
-  </si>
-  <si>
-    <t>Ch. 4.5</t>
   </si>
   <si>
     <t>Cross-Validation and Bootstrap</t>
@@ -460,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -589,27 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,7 +801,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1002,14 +975,14 @@
         <v>44962</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="67"/>
       <c r="I8" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1026,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>28</v>
@@ -1051,31 +1024,31 @@
         <v>46</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="78"/>
-      <c r="D11" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="87">
+      <c r="D11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="21">
         <v>44971</v>
       </c>
-      <c r="F11" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="85" t="s">
+      <c r="F11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="53" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1094,14 +1067,14 @@
         <v>44977</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1115,10 +1088,10 @@
         <v>44978</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>30</v>
@@ -1142,14 +1115,14 @@
         <v>44983</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1163,10 +1136,10 @@
         <v>44985</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>31</v>
@@ -1188,10 +1161,10 @@
         <v>44989</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1207,10 +1180,10 @@
         <v>44991</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>32</v>
@@ -1278,36 +1251,36 @@
         <v>45003</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="67"/>
       <c r="I20" s="68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="78"/>
-      <c r="D21" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="87">
+      <c r="D21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="21">
         <v>45005</v>
       </c>
-      <c r="F21" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="85" t="s">
+      <c r="F21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="90" t="s">
+      <c r="I21" s="53" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1324,10 +1297,10 @@
         <v>45010</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="54"/>
@@ -1345,16 +1318,16 @@
         <v>45012</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H23" s="59" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1370,10 +1343,10 @@
         <v>45017</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="54"/>
@@ -1389,10 +1362,10 @@
         <v>45019</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>35</v>
@@ -1416,14 +1389,14 @@
         <v>45024</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H26" s="67"/>
       <c r="I26" s="68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1473,42 +1446,42 @@
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="78"/>
-      <c r="D29" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="87">
+      <c r="D29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="21">
         <v>45033</v>
       </c>
-      <c r="F29" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="90" t="s">
+      <c r="F29" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="91"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="77">
         <v>15</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="20">
         <v>45038</v>
       </c>
-      <c r="F30" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="97"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="98"/>
+      <c r="F30" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9643198-8720-7B49-901C-D9A3F0FBDBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5431C6-E9F3-394E-B075-0D54182E2734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="55880" yWindow="1960" windowWidth="23220" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>ic07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Speaker - Ashley Suh </t>
+  </si>
+  <si>
+    <t>speaker</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1466,7 +1472,9 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="C30" s="77">
         <v>15</v>
       </c>
@@ -1477,7 +1485,7 @@
         <v>45038</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="8"/>
@@ -1486,7 +1494,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="22" t="s">
@@ -1495,8 +1503,8 @@
       <c r="E31" s="21">
         <v>45040</v>
       </c>
-      <c r="F31" s="56" t="s">
-        <v>36</v>
+      <c r="F31" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="13"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5431C6-E9F3-394E-B075-0D54182E2734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73874A76-F42C-524D-9C31-862BC18229AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="55880" yWindow="1960" windowWidth="23220" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,9 +266,6 @@
     <t xml:space="preserve">Ch. 12.4 </t>
   </si>
   <si>
-    <t xml:space="preserve">TBD: Flex day </t>
-  </si>
-  <si>
     <t>ic02</t>
   </si>
   <si>
@@ -291,13 +288,16 @@
   </si>
   <si>
     <t>speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coded Bias </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -331,6 +331,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -541,7 +549,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,6 +575,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,7 +820,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -850,7 +863,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="77">
+      <c r="C2" s="82">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -863,7 +876,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="81"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="34" t="s">
         <v>16</v>
       </c>
@@ -881,7 +894,7 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="77">
+      <c r="C4" s="82">
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -904,7 +917,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="81"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="34" t="s">
         <v>16</v>
       </c>
@@ -925,7 +938,7 @@
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="77">
+      <c r="C6" s="82">
         <v>3</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -946,7 +959,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="78"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
@@ -967,34 +980,34 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="82">
         <v>4</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="63">
         <v>44962</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68" t="s">
-        <v>78</v>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="78"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
@@ -1017,7 +1030,7 @@
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="77">
+      <c r="C10" s="82">
         <v>5</v>
       </c>
       <c r="D10" s="35" t="s">
@@ -1038,7 +1051,7 @@
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="78"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
@@ -1059,34 +1072,34 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="82">
         <v>6</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <v>44977</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68" t="s">
-        <v>79</v>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="78"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1107,34 +1120,34 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="82">
         <v>7</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="63">
         <v>44983</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68" t="s">
-        <v>80</v>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1170,7 @@
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="77">
+      <c r="C16" s="82">
         <v>8</v>
       </c>
       <c r="D16" s="35" t="s">
@@ -1178,7 +1191,7 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="78"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1218,7 @@
       <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="87">
         <v>9</v>
       </c>
       <c r="D18" s="36" t="s">
@@ -1228,7 +1241,7 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="37" t="s">
         <v>16</v>
       </c>
@@ -1243,34 +1256,34 @@
       <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="82">
         <v>10</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="63">
         <v>45003</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68" t="s">
-        <v>81</v>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="78"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="22" t="s">
         <v>16</v>
       </c>
@@ -1293,7 +1306,7 @@
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="77">
+      <c r="C22" s="82">
         <v>11</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -1312,34 +1325,34 @@
       <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="58">
+      <c r="C23" s="83"/>
+      <c r="D23" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="57">
         <v>45012</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="61" t="s">
-        <v>82</v>
+      <c r="I23" s="60" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="77">
+      <c r="C24" s="82">
         <v>12</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -1360,7 +1373,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="78"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
@@ -1381,50 +1394,50 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="82">
         <v>13</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="63">
         <v>45024</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68" t="s">
-        <v>83</v>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="C27" s="83"/>
+      <c r="D27" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="48">
         <v>45026</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="18" t="s">
+      <c r="G27" s="50"/>
+      <c r="H27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="52" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1435,7 +1448,7 @@
       <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="77">
+      <c r="C28" s="82">
         <v>14</v>
       </c>
       <c r="D28" s="36" t="s">
@@ -1454,7 +1467,7 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="78"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="22" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +1475,7 @@
         <v>45033</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="13"/>
@@ -1471,40 +1484,40 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="82">
         <v>15</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="71">
         <v>45038</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="81"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="78"/>
+        <v>84</v>
+      </c>
+      <c r="C31" s="83"/>
       <c r="D31" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="21">
         <v>45040</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>84</v>
+      <c r="F31" s="76" t="s">
+        <v>83</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="13"/>
@@ -1513,27 +1526,27 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="79">
-        <v>16</v>
-      </c>
-      <c r="D32" s="71" t="s">
+      <c r="C32" s="84">
+        <v>16</v>
+      </c>
+      <c r="D32" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="71">
         <v>45045</v>
       </c>
-      <c r="F32" s="70" t="s">
+      <c r="F32" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="75" t="s">
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1544,7 +1557,7 @@
       <c r="B33" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="80"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="48" t="s">
         <v>16</v>
       </c>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73874A76-F42C-524D-9C31-862BC18229AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AAE69-EF36-6740-9B72-71C8B070A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55880" yWindow="1960" windowWidth="23220" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42480" yWindow="1640" windowWidth="23220" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>Ch. 6.3</t>
   </si>
   <si>
-    <t>Linear Models and Regularization Lab</t>
-  </si>
-  <si>
     <t>Ch. 6.5</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coded Bias </t>
+  </si>
+  <si>
+    <t>Linear Models and Regularization Lab, EDA</t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="H8" s="66"/>
       <c r="I8" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H12" s="66"/>
       <c r="I12" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="H14" s="66"/>
       <c r="I14" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1270,14 +1270,14 @@
         <v>45003</v>
       </c>
       <c r="F20" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="65" t="s">
         <v>63</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>64</v>
       </c>
       <c r="H20" s="66"/>
       <c r="I20" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1291,10 +1291,10 @@
         <v>45005</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>71</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>72</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>33</v>
@@ -1316,10 +1316,10 @@
         <v>45010</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="54"/>
@@ -1337,16 +1337,16 @@
         <v>45012</v>
       </c>
       <c r="F23" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="59" t="s">
         <v>74</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>75</v>
       </c>
       <c r="H23" s="58" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1362,10 +1362,10 @@
         <v>45017</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>65</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>66</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="54"/>
@@ -1381,10 +1381,10 @@
         <v>45019</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>67</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>35</v>
@@ -1408,14 +1408,14 @@
         <v>45024</v>
       </c>
       <c r="F26" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="65" t="s">
         <v>69</v>
-      </c>
-      <c r="G26" s="65" t="s">
-        <v>70</v>
       </c>
       <c r="H26" s="66"/>
       <c r="I26" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>45033</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="13"/>
@@ -1507,7 +1507,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="83"/>
       <c r="D31" s="22" t="s">
@@ -1517,7 +1517,7 @@
         <v>45040</v>
       </c>
       <c r="F31" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="13"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AAE69-EF36-6740-9B72-71C8B070A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9D44B-23F1-F94D-BEBB-50A46FFF08D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42480" yWindow="1640" windowWidth="23220" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1290,11 +1290,11 @@
       <c r="E21" s="21">
         <v>45005</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>70</v>
+      <c r="F21" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>33</v>
@@ -1315,11 +1315,11 @@
       <c r="E22" s="20">
         <v>45010</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>72</v>
+      <c r="F22" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="54"/>
@@ -1337,10 +1337,10 @@
         <v>45012</v>
       </c>
       <c r="F23" s="58" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H23" s="58" t="s">
         <v>34</v>
@@ -1362,10 +1362,10 @@
         <v>45017</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="54"/>
@@ -1381,10 +1381,10 @@
         <v>45019</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>35</v>
@@ -1408,10 +1408,10 @@
         <v>45024</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H26" s="66"/>
       <c r="I26" s="67" t="s">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9D44B-23F1-F94D-BEBB-50A46FFF08D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08563761-3328-944D-B6EC-5D782FD6CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Linear Models and Regularization Lab, EDA</t>
+  </si>
+  <si>
+    <t>NO CLASS</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -550,7 +553,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,8 +578,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,6 +602,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +848,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -863,7 +891,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="82">
+      <c r="C2" s="79">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -876,7 +904,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="86"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="34" t="s">
         <v>16</v>
       </c>
@@ -894,7 +922,7 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="82">
+      <c r="C4" s="79">
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -917,7 +945,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="86"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="34" t="s">
         <v>16</v>
       </c>
@@ -938,7 +966,7 @@
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="82">
+      <c r="C6" s="79">
         <v>3</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -959,7 +987,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="83"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
@@ -980,34 +1008,34 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="79">
         <v>4</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="62">
         <v>44962</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="66" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="83"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1058,7 @@
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="82">
+      <c r="C10" s="79">
         <v>5</v>
       </c>
       <c r="D10" s="35" t="s">
@@ -1051,7 +1079,7 @@
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="83"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
@@ -1072,34 +1100,34 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="79">
         <v>6</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="62">
         <v>44977</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="66" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1120,34 +1148,34 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="79">
         <v>7</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="62">
         <v>44983</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67" t="s">
+      <c r="H14" s="65"/>
+      <c r="I14" s="66" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="83"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1198,7 @@
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="82">
+      <c r="C16" s="79">
         <v>8</v>
       </c>
       <c r="D16" s="35" t="s">
@@ -1191,7 +1219,7 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="83"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
@@ -1218,7 +1246,7 @@
       <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="84">
         <v>9</v>
       </c>
       <c r="D18" s="36" t="s">
@@ -1241,7 +1269,7 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="37" t="s">
         <v>16</v>
       </c>
@@ -1256,188 +1284,190 @@
       <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="82">
+      <c r="C20" s="79">
         <v>10</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="62">
         <v>45003</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67" t="s">
+      <c r="H20" s="65"/>
+      <c r="I20" s="66" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="22" t="s">
+      <c r="A21" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="30">
         <v>45005</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="91"/>
+      <c r="H21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95">
+        <v>11</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="97">
+        <v>45010</v>
+      </c>
+      <c r="F22" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G22" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="82">
-        <v>11</v>
-      </c>
-      <c r="D22" s="35" t="s">
+      <c r="H22" s="94"/>
+      <c r="I22" s="99"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="101">
+        <v>45012</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="67"/>
+      <c r="B24" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="95">
+        <v>12</v>
+      </c>
+      <c r="D24" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="20">
-        <v>45010</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="54"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="58" t="s">
+      <c r="E24" s="62">
+        <v>45017</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="86"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="101">
+        <v>45019</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="93"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="95">
+        <v>13</v>
+      </c>
+      <c r="D26" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="97">
+        <v>45024</v>
+      </c>
+      <c r="F26" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="94"/>
+      <c r="I26" s="99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="56" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="57">
-        <v>45012</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="82">
-        <v>12</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="20">
-        <v>45017</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="54"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="21">
-        <v>45019</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="82">
-        <v>13</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="63">
-        <v>45024</v>
-      </c>
-      <c r="F26" s="64" t="s">
+      <c r="E27" s="56">
+        <v>45026</v>
+      </c>
+      <c r="F27" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="G27" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="48">
-        <v>45026</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1448,7 +1478,7 @@
       <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="79">
         <v>14</v>
       </c>
       <c r="D28" s="36" t="s">
@@ -1467,7 +1497,7 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="83"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="22" t="s">
         <v>16</v>
       </c>
@@ -1484,39 +1514,39 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="79"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="79">
         <v>15</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="70">
         <v>45038</v>
       </c>
-      <c r="F30" s="80" t="s">
+      <c r="F30" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="81"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="78"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="21">
         <v>45040</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="75" t="s">
         <v>82</v>
       </c>
       <c r="G31" s="44"/>
@@ -1526,27 +1556,27 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="81">
         <v>16</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="70">
         <v>45045</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="74" t="s">
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1557,7 +1587,7 @@
       <c r="B33" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="85"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="48" t="s">
         <v>16</v>
       </c>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08563761-3328-944D-B6EC-5D782FD6CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5433E927-E327-334D-974D-5B47D15FC74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29700" yWindow="1120" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -110,9 +110,6 @@
     <t>proj-check-in</t>
   </si>
   <si>
-    <t>proj-proposal</t>
-  </si>
-  <si>
     <t>hw01</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>hw05</t>
   </si>
   <si>
-    <t>q05</t>
-  </si>
-  <si>
     <t>Final Project Work Session</t>
   </si>
   <si>
@@ -275,12 +269,6 @@
     <t>ic05</t>
   </si>
   <si>
-    <t>q04, ic06</t>
-  </si>
-  <si>
-    <t>ic07</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guest Speaker - Ashley Suh </t>
   </si>
   <si>
@@ -294,6 +282,12 @@
   </si>
   <si>
     <t>NO CLASS</t>
+  </si>
+  <si>
+    <t>ic06</t>
+  </si>
+  <si>
+    <t>proj-proposal, ic07</t>
   </si>
 </sst>
 </file>
@@ -471,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -581,6 +575,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,34 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,7 +818,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -857,6 +827,7 @@
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="45"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -891,7 +862,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="79">
+      <c r="C2" s="81">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -904,7 +875,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="83"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="34" t="s">
         <v>16</v>
       </c>
@@ -915,14 +886,14 @@
         <v>19</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="79">
+      <c r="C4" s="81">
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -932,20 +903,20 @@
         <v>44948</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="83"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="34" t="s">
         <v>16</v>
       </c>
@@ -956,17 +927,17 @@
         <v>20</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="79">
+      <c r="C6" s="81">
         <v>3</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -976,10 +947,10 @@
         <v>44955</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="54"/>
@@ -987,7 +958,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
@@ -995,16 +966,16 @@
         <v>44957</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1012,7 +983,7 @@
       <c r="B8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="81">
         <v>4</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -1022,20 +993,20 @@
         <v>44962</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="65"/>
       <c r="I8" s="66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="80"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
@@ -1046,19 +1017,19 @@
         <v>21</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="79">
+      <c r="C10" s="81">
         <v>5</v>
       </c>
       <c r="D10" s="35" t="s">
@@ -1068,10 +1039,10 @@
         <v>44969</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="54"/>
@@ -1079,7 +1050,7 @@
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="80"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
@@ -1087,16 +1058,16 @@
         <v>44971</v>
       </c>
       <c r="F11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1104,7 +1075,7 @@
       <c r="B12" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="81">
         <v>6</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -1114,20 +1085,20 @@
         <v>44977</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="80"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1135,16 +1106,16 @@
         <v>44978</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1152,7 +1123,7 @@
       <c r="B14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="81">
         <v>7</v>
       </c>
       <c r="D14" s="61" t="s">
@@ -1162,20 +1133,20 @@
         <v>44983</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="80"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1183,22 +1154,22 @@
         <v>44985</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="79">
+      <c r="C16" s="81">
         <v>8</v>
       </c>
       <c r="D16" s="35" t="s">
@@ -1208,10 +1179,10 @@
         <v>44989</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1219,7 +1190,7 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="80"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
@@ -1227,16 +1198,16 @@
         <v>44991</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1246,7 +1217,7 @@
       <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="86">
         <v>9</v>
       </c>
       <c r="D18" s="36" t="s">
@@ -1269,7 +1240,7 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="85"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="37" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1259,7 @@
       <c r="B20" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="81">
         <v>10</v>
       </c>
       <c r="D20" s="61" t="s">
@@ -1298,14 +1269,14 @@
         <v>45003</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1315,66 +1286,66 @@
       <c r="B21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="80"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="30">
         <v>45005</v>
       </c>
-      <c r="F21" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="91"/>
+      <c r="F21" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="79"/>
       <c r="H21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="81">
+        <v>11</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="20">
+        <v>45010</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21">
+        <v>45012</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="92" t="s">
+      <c r="I23" s="53" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="95">
-        <v>11</v>
-      </c>
-      <c r="D22" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="97">
-        <v>45010</v>
-      </c>
-      <c r="F22" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="94"/>
-      <c r="I22" s="99"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="101">
-        <v>45012</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="89" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1382,7 +1353,7 @@
       <c r="B24" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="81">
         <v>12</v>
       </c>
       <c r="D24" s="61" t="s">
@@ -1392,66 +1363,66 @@
         <v>45017</v>
       </c>
       <c r="F24" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="21">
+        <v>45019</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="101">
-        <v>45019</v>
-      </c>
-      <c r="F25" s="87" t="s">
+      <c r="H25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="81">
+        <v>13</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="20">
+        <v>45024</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="89" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="95">
-        <v>13</v>
-      </c>
-      <c r="D26" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="97">
-        <v>45024</v>
-      </c>
-      <c r="F26" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="94"/>
-      <c r="I26" s="99" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="60"/>
       <c r="B27" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="100"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="56" t="s">
         <v>16</v>
       </c>
@@ -1459,16 +1430,14 @@
         <v>45026</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G27" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="57" t="s">
-        <v>23</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H27" s="57"/>
       <c r="I27" s="59" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1478,7 +1447,7 @@
       <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="81">
         <v>14</v>
       </c>
       <c r="D28" s="36" t="s">
@@ -1497,7 +1466,7 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="80"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="22" t="s">
         <v>16</v>
       </c>
@@ -1505,12 +1474,12 @@
         <v>45033</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="13"/>
       <c r="I29" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1518,7 +1487,7 @@
       <c r="B30" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="79">
+      <c r="C30" s="81">
         <v>15</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -1528,7 +1497,7 @@
         <v>45038</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G30" s="71"/>
       <c r="H30" s="72"/>
@@ -1537,9 +1506,9 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="80"/>
+        <v>79</v>
+      </c>
+      <c r="C31" s="82"/>
       <c r="D31" s="22" t="s">
         <v>16</v>
       </c>
@@ -1547,13 +1516,11 @@
         <v>45040</v>
       </c>
       <c r="F31" s="75" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="53" t="s">
-        <v>24</v>
-      </c>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="74" t="s">
@@ -1562,7 +1529,7 @@
       <c r="B32" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="83">
         <v>16</v>
       </c>
       <c r="D32" s="69" t="s">
@@ -1587,7 +1554,7 @@
       <c r="B33" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="48" t="s">
         <v>16</v>
       </c>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5433E927-E327-334D-974D-5B47D15FC74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95789E0E-F255-C945-A024-52BEDEDF29E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="1120" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -248,9 +248,6 @@
     <t>Clustering Methods</t>
   </si>
   <si>
-    <t>Unsupervised Learning Lab</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ch. 12.5 </t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>proj-proposal, ic07</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning Lab and Proposal Check-in</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -503,7 +503,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -571,9 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,6 +596,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,15 +833,15 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="6"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="45"/>
+    <col min="6" max="6" width="35.33203125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="44"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -862,30 +877,30 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="81">
+      <c r="C2" s="78">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="19">
         <v>44943</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="11"/>
@@ -893,295 +908,295 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="81">
+      <c r="C4" s="78">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="20">
         <v>44948</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="19">
         <v>44950</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="81">
+      <c r="C6" s="78">
         <v>3</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="20">
         <v>44955</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="82"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="21">
         <v>44957</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="78">
         <v>4</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="61">
         <v>44962</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66" t="s">
-        <v>74</v>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="21">
         <v>44964</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="81">
+      <c r="C10" s="78">
         <v>5</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="20">
         <v>44969</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="21">
         <v>44971</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="52" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="78">
         <v>6</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="61">
         <v>44977</v>
       </c>
       <c r="F12" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66" t="s">
-        <v>75</v>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="82"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="21">
         <v>44978</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="78">
         <v>7</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="61">
         <v>44983</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66" t="s">
-        <v>76</v>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="82"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="21">
         <v>44985</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="81">
+      <c r="C16" s="78">
         <v>8</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="20">
         <v>44989</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>58</v>
       </c>
       <c r="H16" s="8"/>
@@ -1190,93 +1205,93 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="82"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="21">
         <v>44991</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="83">
         <v>9</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="25">
         <v>44996</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="30">
         <v>44998</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
-      <c r="B20" s="63" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="66"/>
+      <c r="B20" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="78">
         <v>10</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="61">
         <v>45003</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66" t="s">
-        <v>77</v>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1286,287 +1301,287 @@
       <c r="B21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="30">
         <v>45005</v>
       </c>
-      <c r="F21" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="79"/>
+      <c r="F21" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="76"/>
       <c r="H21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="80" t="s">
+      <c r="I21" s="77" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="81">
+      <c r="C22" s="78">
         <v>11</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="20">
         <v>45010</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>63</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="54"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="82"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="21">
         <v>45012</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="40" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="52" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
-      <c r="B24" s="63" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="78">
         <v>12</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="61">
         <v>45017</v>
       </c>
       <c r="F24" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66" t="s">
-        <v>83</v>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="82"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="21">
         <v>45019</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="40" t="s">
         <v>69</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="81">
+      <c r="C26" s="78">
         <v>13</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="20">
         <v>45024</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="40" t="s">
-        <v>73</v>
+      <c r="G26" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="54"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="57" t="s">
+      <c r="I26" s="53"/>
+    </row>
+    <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="56" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="55">
         <v>45026</v>
       </c>
       <c r="F27" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H27" s="56"/>
+      <c r="I27" s="58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="78">
         <v>14</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="25">
         <v>45031</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="42"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="82"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="21">
         <v>45033</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="44"/>
+      <c r="F29" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="43"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
-      <c r="B30" s="68" t="s">
+    <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="74"/>
+      <c r="B30" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="78">
         <v>15</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="69">
         <v>45038</v>
       </c>
-      <c r="F30" s="77" t="s">
+      <c r="F30" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="75"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="82"/>
+        <v>78</v>
+      </c>
+      <c r="C31" s="79"/>
       <c r="D31" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="21">
         <v>45040</v>
       </c>
-      <c r="F31" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="44"/>
+      <c r="F31" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="43"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="53"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="74" t="s">
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="83">
+      <c r="C32" s="80">
         <v>16</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="69">
         <v>45045</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="71"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73" t="s">
+      <c r="G32" s="70"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="48" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="48">
         <v>45047</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95789E0E-F255-C945-A024-52BEDEDF29E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3720F663-0289-7747-AC48-5B6ECEFB1DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -107,9 +107,6 @@
     <t>proj</t>
   </si>
   <si>
-    <t>proj-check-in</t>
-  </si>
-  <si>
     <t>hw01</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>q04</t>
   </si>
   <si>
-    <t>hw05</t>
-  </si>
-  <si>
     <t>Final Project Work Session</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>Ch. 8.2</t>
   </si>
   <si>
-    <t>Tree-Based Methods Lab</t>
-  </si>
-  <si>
     <t>Ch. 8.3</t>
   </si>
   <si>
@@ -281,13 +272,22 @@
     <t>NO CLASS</t>
   </si>
   <si>
-    <t>ic06</t>
-  </si>
-  <si>
-    <t>proj-proposal, ic07</t>
-  </si>
-  <si>
-    <t>Unsupervised Learning Lab and Proposal Check-in</t>
+    <t>proj-reflection</t>
+  </si>
+  <si>
+    <t>proj-proposal, ic06</t>
+  </si>
+  <si>
+    <t>proj-check-in2</t>
+  </si>
+  <si>
+    <t>proj-check-in1, ic07</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning Lab</t>
+  </si>
+  <si>
+    <t>Tree-Based Methods Lab, Proposal Check-in</t>
   </si>
 </sst>
 </file>
@@ -576,6 +576,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,24 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,16 +833,16 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="6"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" style="44" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="44"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="78">
+      <c r="C2" s="84">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -890,7 +890,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="82"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
@@ -901,14 +901,14 @@
         <v>19</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="78">
+      <c r="C4" s="84">
         <v>2</v>
       </c>
       <c r="D4" s="34" t="s">
@@ -918,20 +918,20 @@
         <v>44948</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="82"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="33" t="s">
         <v>16</v>
       </c>
@@ -942,17 +942,17 @@
         <v>20</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="78">
+      <c r="C6" s="84">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -962,10 +962,10 @@
         <v>44955</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="53"/>
@@ -973,7 +973,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="79"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
@@ -981,16 +981,16 @@
         <v>44957</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -998,7 +998,7 @@
       <c r="B8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="84">
         <v>4</v>
       </c>
       <c r="D8" s="60" t="s">
@@ -1008,20 +1008,20 @@
         <v>44962</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="79"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
@@ -1032,19 +1032,19 @@
         <v>21</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="78">
+      <c r="C10" s="84">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -1054,10 +1054,10 @@
         <v>44969</v>
       </c>
       <c r="F10" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="53"/>
@@ -1065,7 +1065,7 @@
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="79"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
@@ -1073,16 +1073,16 @@
         <v>44971</v>
       </c>
       <c r="F11" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>46</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1090,7 +1090,7 @@
       <c r="B12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="84">
         <v>6</v>
       </c>
       <c r="D12" s="60" t="s">
@@ -1100,20 +1100,20 @@
         <v>44977</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="64"/>
       <c r="I12" s="65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="79"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1121,16 +1121,16 @@
         <v>44978</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1138,7 +1138,7 @@
       <c r="B14" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="84">
         <v>7</v>
       </c>
       <c r="D14" s="60" t="s">
@@ -1148,20 +1148,20 @@
         <v>44983</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="64"/>
       <c r="I14" s="65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="79"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1169,22 +1169,22 @@
         <v>44985</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="78">
+      <c r="C16" s="84">
         <v>8</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -1194,10 +1194,10 @@
         <v>44989</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -1205,7 +1205,7 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="79"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
@@ -1213,16 +1213,16 @@
         <v>44991</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1232,7 +1232,7 @@
       <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="89">
         <v>9</v>
       </c>
       <c r="D18" s="35" t="s">
@@ -1241,7 +1241,7 @@
       <c r="E18" s="25">
         <v>44996</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="78" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="41"/>
@@ -1255,14 +1255,14 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="30">
         <v>44998</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="79" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="42"/>
@@ -1274,7 +1274,7 @@
       <c r="B20" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="84">
         <v>10</v>
       </c>
       <c r="D20" s="60" t="s">
@@ -1284,14 +1284,14 @@
         <v>45003</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="64"/>
       <c r="I20" s="65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
       <c r="B21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="36" t="s">
         <v>16</v>
       </c>
@@ -1309,20 +1309,20 @@
         <v>45005</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G21" s="76"/>
       <c r="H21" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="78">
+      <c r="C22" s="84">
         <v>11</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -1332,10 +1332,10 @@
         <v>45010</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="53"/>
@@ -1343,7 +1343,7 @@
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="79"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="22" t="s">
         <v>16</v>
       </c>
@@ -1351,24 +1351,24 @@
         <v>45012</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="66"/>
       <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="84">
         <v>12</v>
       </c>
       <c r="D24" s="60" t="s">
@@ -1378,20 +1378,20 @@
         <v>45017</v>
       </c>
       <c r="F24" s="63" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H24" s="64"/>
       <c r="I24" s="65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="79"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
@@ -1399,22 +1399,18 @@
         <v>45019</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>33</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="78">
+      <c r="C26" s="84">
         <v>13</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -1424,20 +1420,20 @@
         <v>45024</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="53"/>
     </row>
-    <row r="27" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="59"/>
       <c r="B27" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="55" t="s">
         <v>16</v>
       </c>
@@ -1445,14 +1441,14 @@
         <v>45026</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="57" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H27" s="56"/>
       <c r="I27" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1462,7 +1458,7 @@
       <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="84">
         <v>14</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -1471,7 +1467,7 @@
       <c r="E28" s="25">
         <v>45031</v>
       </c>
-      <c r="F28" s="85" t="s">
+      <c r="F28" s="78" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="41"/>
@@ -1481,7 +1477,7 @@
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="79"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="22" t="s">
         <v>16</v>
       </c>
@@ -1489,12 +1485,12 @@
         <v>45033</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="13"/>
       <c r="I29" s="52" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1502,7 +1498,7 @@
       <c r="B30" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="78">
+      <c r="C30" s="84">
         <v>15</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -1511,8 +1507,8 @@
       <c r="E30" s="69">
         <v>45038</v>
       </c>
-      <c r="F30" s="87" t="s">
-        <v>34</v>
+      <c r="F30" s="80" t="s">
+        <v>32</v>
       </c>
       <c r="G30" s="70"/>
       <c r="H30" s="71"/>
@@ -1521,17 +1517,17 @@
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="79"/>
+        <v>75</v>
+      </c>
+      <c r="C31" s="85"/>
       <c r="D31" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="21">
         <v>45040</v>
       </c>
-      <c r="F31" s="88" t="s">
-        <v>77</v>
+      <c r="F31" s="81" t="s">
+        <v>74</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="13"/>
@@ -1544,7 +1540,7 @@
       <c r="B32" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="86">
         <v>16</v>
       </c>
       <c r="D32" s="68" t="s">
@@ -1553,7 +1549,7 @@
       <c r="E32" s="69">
         <v>45045</v>
       </c>
-      <c r="F32" s="89" t="s">
+      <c r="F32" s="82" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="70"/>
@@ -1569,19 +1565,21 @@
       <c r="B33" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="81"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="47" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="48">
         <v>45047</v>
       </c>
-      <c r="F33" s="90" t="s">
+      <c r="F33" s="83" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="49"/>
       <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="I33" s="51" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3720F663-0289-7747-AC48-5B6ECEFB1DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856125CF-28BA-3F45-A499-72DE7D265A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -230,21 +230,6 @@
     <t>Ch. 8.3</t>
   </si>
   <si>
-    <t>Principal Components Analysis</t>
-  </si>
-  <si>
-    <t>Ch. 12.2</t>
-  </si>
-  <si>
-    <t>Clustering Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch. 12.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch. 12.4 </t>
-  </si>
-  <si>
     <t>ic02</t>
   </si>
   <si>
@@ -257,12 +242,6 @@
     <t>ic05</t>
   </si>
   <si>
-    <t xml:space="preserve">Guest Speaker - Ashley Suh </t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coded Bias </t>
   </si>
   <si>
@@ -284,10 +263,19 @@
     <t>proj-check-in1, ic07</t>
   </si>
   <si>
-    <t>Unsupervised Learning Lab</t>
-  </si>
-  <si>
     <t>Tree-Based Methods Lab, Proposal Check-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS - Ab Sick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coded Bias - Finish and Discussion </t>
+  </si>
+  <si>
+    <t>Unsupervised Learning Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse! </t>
   </si>
 </sst>
 </file>
@@ -333,9 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="5" tint="-0.499984740745262"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -585,15 +572,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +600,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,7 +822,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -877,7 +866,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="84">
+      <c r="C2" s="85">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -890,7 +879,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="88"/>
+      <c r="C3" s="89"/>
       <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
@@ -908,7 +897,7 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="84">
+      <c r="C4" s="85">
         <v>2</v>
       </c>
       <c r="D4" s="34" t="s">
@@ -931,7 +920,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="88"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="33" t="s">
         <v>16</v>
       </c>
@@ -952,7 +941,7 @@
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="84">
+      <c r="C6" s="85">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -973,7 +962,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="85"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
@@ -998,7 +987,7 @@
       <c r="B8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="85">
         <v>4</v>
       </c>
       <c r="D8" s="60" t="s">
@@ -1015,13 +1004,13 @@
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="65" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="85"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1033,7 @@
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="84">
+      <c r="C10" s="85">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -1065,7 +1054,7 @@
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="85"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1079,7 @@
       <c r="B12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="85">
         <v>6</v>
       </c>
       <c r="D12" s="60" t="s">
@@ -1107,13 +1096,13 @@
       </c>
       <c r="H12" s="64"/>
       <c r="I12" s="65" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="85"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1138,7 +1127,7 @@
       <c r="B14" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="85">
         <v>7</v>
       </c>
       <c r="D14" s="60" t="s">
@@ -1155,13 +1144,13 @@
       </c>
       <c r="H14" s="64"/>
       <c r="I14" s="65" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="85"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1173,7 @@
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="84">
+      <c r="C16" s="85">
         <v>8</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -1205,7 +1194,7 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
@@ -1232,7 +1221,7 @@
       <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="90">
         <v>9</v>
       </c>
       <c r="D18" s="35" t="s">
@@ -1255,7 +1244,7 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="36" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +1263,7 @@
       <c r="B20" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="85">
         <v>10</v>
       </c>
       <c r="D20" s="60" t="s">
@@ -1284,14 +1273,14 @@
         <v>45003</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G20" s="63" t="s">
         <v>59</v>
       </c>
       <c r="H20" s="64"/>
       <c r="I20" s="65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1301,7 +1290,7 @@
       <c r="B21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="36" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1298,7 @@
         <v>45005</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G21" s="76"/>
       <c r="H21" s="29" t="s">
@@ -1322,7 +1311,7 @@
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="84">
+      <c r="C22" s="85">
         <v>11</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -1343,7 +1332,7 @@
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="85"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="22" t="s">
         <v>16</v>
       </c>
@@ -1364,53 +1353,57 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="85">
         <v>12</v>
       </c>
-      <c r="C24" s="84">
+      <c r="D24" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="25">
+        <v>45017</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="61">
-        <v>45017</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="63" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="84">
+        <v>45019</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="21">
-        <v>45019</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="52"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="84">
+      <c r="C26" s="85">
         <v>13</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -1420,35 +1413,29 @@
         <v>45024</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>69</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G26" s="39"/>
       <c r="H26" s="8"/>
       <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
-      <c r="B27" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="55">
+      <c r="A27" s="12"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="22">
         <v>45026</v>
       </c>
-      <c r="F27" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="58" t="s">
-        <v>82</v>
+      <c r="F27" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="52" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1458,7 +1445,7 @@
       <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="85">
         <v>14</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -1477,7 +1464,7 @@
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="85"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="22" t="s">
         <v>16</v>
       </c>
@@ -1485,12 +1472,12 @@
         <v>45033</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="13"/>
       <c r="I29" s="52" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1498,7 +1485,7 @@
       <c r="B30" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="85">
         <v>15</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -1516,18 +1503,16 @@
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
-      <c r="B31" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="85"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="21">
         <v>45040</v>
       </c>
-      <c r="F31" s="81" t="s">
-        <v>74</v>
+      <c r="F31" s="92" t="s">
+        <v>79</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="13"/>
@@ -1540,7 +1525,7 @@
       <c r="B32" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="87">
         <v>16</v>
       </c>
       <c r="D32" s="68" t="s">
@@ -1549,7 +1534,7 @@
       <c r="E32" s="69">
         <v>45045</v>
       </c>
-      <c r="F32" s="82" t="s">
+      <c r="F32" s="81" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="70"/>
@@ -1565,20 +1550,20 @@
       <c r="B33" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="87"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="47" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="48">
         <v>45047</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="82" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="49"/>
       <c r="H33" s="50"/>
       <c r="I33" s="51" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS380ML-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856125CF-28BA-3F45-A499-72DE7D265A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7045A04-5190-594B-A96F-EDF19F24FC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -254,15 +254,9 @@
     <t>proj-reflection</t>
   </si>
   <si>
-    <t>proj-proposal, ic06</t>
-  </si>
-  <si>
     <t>proj-check-in2</t>
   </si>
   <si>
-    <t>proj-check-in1, ic07</t>
-  </si>
-  <si>
     <t>Tree-Based Methods Lab, Proposal Check-in</t>
   </si>
   <si>
@@ -272,17 +266,26 @@
     <t xml:space="preserve">Coded Bias - Finish and Discussion </t>
   </si>
   <si>
-    <t>Unsupervised Learning Overview</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eclipse! </t>
+  </si>
+  <si>
+    <t>Guest Speaker: Jon Ventuell</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>proj-proposal</t>
+  </si>
+  <si>
+    <t>proj-check-in1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -316,13 +319,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,8 +553,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -570,9 +564,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,7 +592,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -821,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -866,7 +869,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="85">
+      <c r="C2" s="82">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -879,7 +882,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="89"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
@@ -897,7 +900,7 @@
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="85">
+      <c r="C4" s="82">
         <v>2</v>
       </c>
       <c r="D4" s="34" t="s">
@@ -920,7 +923,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="89"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="33" t="s">
         <v>16</v>
       </c>
@@ -941,7 +944,7 @@
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="85">
+      <c r="C6" s="82">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -962,7 +965,7 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="86"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
@@ -987,7 +990,7 @@
       <c r="B8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="82">
         <v>4</v>
       </c>
       <c r="D8" s="60" t="s">
@@ -1010,7 +1013,7 @@
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="86"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1036,7 @@
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="85">
+      <c r="C10" s="82">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -1054,7 +1057,7 @@
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="86"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1082,7 @@
       <c r="B12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="82">
         <v>6</v>
       </c>
       <c r="D12" s="60" t="s">
@@ -1102,7 +1105,7 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="86"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1130,7 @@
       <c r="B14" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="82">
         <v>7</v>
       </c>
       <c r="D14" s="60" t="s">
@@ -1150,7 +1153,7 @@
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="86"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1176,7 @@
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="85">
+      <c r="C16" s="82">
         <v>8</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -1194,7 +1197,7 @@
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="86"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1224,7 @@
       <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="90">
+      <c r="C18" s="87">
         <v>9</v>
       </c>
       <c r="D18" s="35" t="s">
@@ -1230,7 +1233,7 @@
       <c r="E18" s="25">
         <v>44996</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="76" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="41"/>
@@ -1244,14 +1247,14 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="30">
         <v>44998</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="77" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="42"/>
@@ -1263,7 +1266,7 @@
       <c r="B20" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="82">
         <v>10</v>
       </c>
       <c r="D20" s="60" t="s">
@@ -1290,28 +1293,28 @@
       <c r="B21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="30">
         <v>45005</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="76"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="75" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="85">
+      <c r="C22" s="82">
         <v>11</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -1332,7 +1335,7 @@
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="86"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="22" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1362,7 @@
       <c r="B24" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="82">
         <v>12</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -1368,15 +1371,15 @@
       <c r="E24" s="25">
         <v>45017</v>
       </c>
-      <c r="F24" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="78" t="s">
+      <c r="F24" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="76" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="26"/>
-      <c r="I24" s="83" t="s">
-        <v>73</v>
+      <c r="I24" s="80" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1384,26 +1387,28 @@
       <c r="B25" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="86"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="81">
         <v>45019</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G25" s="57" t="s">
         <v>64</v>
       </c>
       <c r="H25" s="56"/>
-      <c r="I25" s="58"/>
+      <c r="I25" s="58" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="85">
+      <c r="C26" s="82">
         <v>13</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -1413,7 +1418,7 @@
         <v>45024</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="8"/>
@@ -1422,7 +1427,7 @@
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="86"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="22" t="s">
         <v>16</v>
       </c>
@@ -1435,7 +1440,7 @@
       <c r="G27" s="40"/>
       <c r="H27" s="18"/>
       <c r="I27" s="52" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -1445,7 +1450,7 @@
       <c r="B28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="82">
         <v>14</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -1454,7 +1459,7 @@
       <c r="E28" s="25">
         <v>45031</v>
       </c>
-      <c r="F28" s="78" t="s">
+      <c r="F28" s="76" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="41"/>
@@ -1463,8 +1468,10 @@
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="86"/>
+      <c r="B29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="83"/>
       <c r="D29" s="22" t="s">
         <v>16</v>
       </c>
@@ -1477,46 +1484,46 @@
       <c r="G29" s="43"/>
       <c r="H29" s="13"/>
       <c r="I29" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="85">
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="82">
         <v>15</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="92">
         <v>45038</v>
       </c>
-      <c r="F30" s="80" t="s">
+      <c r="F30" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="95"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="89"/>
+      <c r="B31" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="48">
+        <v>45040</v>
+      </c>
+      <c r="F31" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="75"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="21">
-        <v>45040</v>
-      </c>
-      <c r="F31" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="52"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="73" t="s">
@@ -1525,7 +1532,7 @@
       <c r="B32" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C32" s="84">
         <v>16</v>
       </c>
       <c r="D32" s="68" t="s">
@@ -1534,7 +1541,7 @@
       <c r="E32" s="69">
         <v>45045</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="78" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="70"/>
@@ -1550,14 +1557,14 @@
       <c r="B33" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="88"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="47" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="48">
         <v>45047</v>
       </c>
-      <c r="F33" s="82" t="s">
+      <c r="F33" s="97" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="49"/>
